--- a/biology/Histoire de la zoologie et de la botanique/Kosterm/Kosterm..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kosterm/Kosterm..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Joseph Guillaume Henri Kostermans est un botaniste néerlandais, né le 1er juillet 1906 à Purworejo dans l'île de Java, dans ce qui était alors les Indes néerlandaises, et mort le 10 juillet 1994 en Indonésie.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’université d'Utrecht où il obtient son doctorat avec une thèse sur les Lauraceae du Suriname. Il passe l’essentiel de sa carrière à étudier les végétaux de l’Asie du Sud-Est au Jardin botanique de Buitenzorg dans les Indes néerlandaises, qui prend le nom de Bogor avec l'indépendance de l'Indonésie. Il participe à la rédaction d’un certain nombre de familles de la Flora of Suriname d’August Adriaan Pulle (1878-1955). Kostermans s’intéresse principalement aux Lauraceae, aux Malvales (Bombacaceae et Sterculiaceae), et aux Dipterocarpaceae. À la fin de sa vie, il s’intéresse aux Anacardiaceae asiatiques. Grand travailleur, il fait paraître de nombreuses publications.
-Kostermans est victime d’une attaque cardiaque en mars 1991. Dans une lettre à l’un de ses amis, il écrit en avril 1991 qu’il souhaite mettre la dernière main à un gros manuscrit sur les mangues (69 espèces), mais il fait remarquer qu’il aura de la chance s’il pourra y arriver[1]. Kostermans vivra assez longtemps pour voir la parution de son livre chez Academic Press en 1993. Il meurt en Indonésie l’année suivante.
+Kostermans est victime d’une attaque cardiaque en mars 1991. Dans une lettre à l’un de ses amis, il écrit en avril 1991 qu’il souhaite mettre la dernière main à un gros manuscrit sur les mangues (69 espèces), mais il fait remarquer qu’il aura de la chance s’il pourra y arriver. Kostermans vivra assez longtemps pour voir la parution de son livre chez Academic Press en 1993. Il meurt en Indonésie l’année suivante.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wertit Soegeng Reksodihardjo (1935-) lui a dédié le genre Kostermansia de la famille des Bombacaceae et Caroline Kathryn Allen (es) (1904-1975) l’espèce Cryptocarya kostermansiana.
 Walter Robyns et Rudolf Wilczek lui ont dédié une espèce de Lauraceae, Beilschmiedia kostermansiana.
@@ -575,7 +591,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « André Joseph Guillaume Henri Kostermans » (voir la liste des auteurs) (version du 7 octobre 2007).</t>
         </is>
